--- a/data/original/exercises/020-qualtrics/030-040-030-ex3.xlsx
+++ b/data/original/exercises/020-qualtrics/030-040-030-ex3.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +493,231 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44523.84065972222</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44523.84085648148</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44523.84085648148</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0LIBOL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(Cases_Guinea:last_col(), names_to="case_death") %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  pivot_wider(names_from = case_death, values_from = value) %&gt;%
+  drop_na</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44523.8384375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44523.84164351852</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>276</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.84164351852</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3hostc</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(`Cases_Guinea`:last_col(), names_to = 'number') %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  ____(names_from = case_death, values_from = value) %&gt;%
+  drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44523.8425</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44523.84265046296</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.84265046296</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0LIBOL</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(Cases_Guinea:last_col()) %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  pivot_wider(names_from = case_death, values_from = value) %&gt;%
+  drop_na</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.19250000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.20333333334</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>935</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.87898148148</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44523.83833333333</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44523.8518287037</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1165</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44523.87899305555</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2dunic</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44518.83646990741</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44518.85869212963</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>1920</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44523.87900462963</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0garbc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
